--- a/TestData/UploadSheet/EventReassignmentReport (1).xlsx
+++ b/TestData/UploadSheet/EventReassignmentReport (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitalb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regtrack Merge Project\Regtrack-Project\TestData\UploadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
